--- a/selenisum-suite/src/main/resources/DriverFiles/ProjectDriver.xlsx
+++ b/selenisum-suite/src/main/resources/DriverFiles/ProjectDriver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Run</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>http://localhost:8080/payment-service/index.html</t>
+  </si>
+  <si>
+    <t>Jobs</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,24 +576,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/selenisum-suite/src/main/resources/DriverFiles/ProjectDriver.xlsx
+++ b/selenisum-suite/src/main/resources/DriverFiles/ProjectDriver.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\safeway\ws1\PaymentGateway\selenisum-suite\src\main\resources\DriverFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -68,10 +73,10 @@
     <t>SafeWay_TestData.xlsx</t>
   </si>
   <si>
-    <t>http://localhost:8080/payment-service/index.html</t>
-  </si>
-  <si>
     <t>Jobs</t>
+  </si>
+  <si>
+    <t>http://safeway.com</t>
   </si>
 </sst>
 </file>
@@ -225,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,14 +476,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -522,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -547,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -580,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
